--- a/tests/КонтрольнаяТПСГ.xlsx
+++ b/tests/КонтрольнаяТПСГ.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="288" yWindow="120" windowWidth="22980" windowHeight="9264"/>
+    <workbookView xWindow="288" yWindow="180" windowWidth="22980" windowHeight="9204"/>
   </bookViews>
   <sheets>
     <sheet name="Вопросы" sheetId="2" r:id="rId1"/>
     <sheet name="Список" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621" calcMode="manual"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t>Что такое случайное число?</t>
   </si>
@@ -32,9 +32,6 @@
     <t>Что такое тест на следующий бит?</t>
   </si>
   <si>
-    <t>Какие классы генераторов случайных числе Вы знаете?</t>
-  </si>
-  <si>
     <t>Назовите основные компоненты функциональной модели ГПСЧ?</t>
   </si>
   <si>
@@ -231,13 +228,25 @@
   </si>
   <si>
     <t>4. Сохранить файл под именем "КонтрольнаяТПСГ_ФамилияИО.xlsx" и отправить на почту gurgutan@yandex.ru</t>
+  </si>
+  <si>
+    <t>Какие классы генераторов случайных чисел Вы знаете?</t>
+  </si>
+  <si>
+    <t>Вопрос</t>
+  </si>
+  <si>
+    <t>Ответ</t>
+  </si>
+  <si>
+    <t>№</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -271,6 +280,15 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -286,7 +304,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -310,20 +328,98 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="medium">
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -331,32 +427,133 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -364,6 +561,19 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A8:C24" totalsRowShown="0" dataDxfId="3" headerRowBorderDxfId="5" tableBorderDxfId="6" totalsRowBorderDxfId="4">
+  <tableColumns count="3">
+    <tableColumn id="1" name="№" dataDxfId="2"/>
+    <tableColumn id="2" name="Вопрос" dataDxfId="1">
+      <calculatedColumnFormula>INDEX(Список!$B$3:$B$39,RANDBETWEEN(1,37))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" name="Ответ" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -657,7 +867,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -668,212 +878,221 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B2" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B3" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B4" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B5" s="6" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B2" s="11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="11" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B4" s="11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B5" s="11" t="s">
-        <v>71</v>
-      </c>
-    </row>
     <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="6"/>
+      <c r="A6" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B7" s="7"/>
-      <c r="C7" s="6"/>
+      <c r="C7" s="8"/>
     </row>
     <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
+      <c r="A8" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="9">
+      <c r="A9" s="12">
         <v>1</v>
       </c>
-      <c r="B9" s="8" t="str">
+      <c r="B9" s="14" t="str">
         <f ca="1">INDEX(Список!$B$3:$B$39,RANDBETWEEN(1,37))</f>
-        <v>Какие проблемы приходится решать при реализации физического ГПСЧ?</v>
-      </c>
-      <c r="C9" s="8"/>
-    </row>
-    <row r="10" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="9">
+        <v>Чем отличается генератор случайных бит от генератора случайных чисел?</v>
+      </c>
+      <c r="C9" s="15"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="12">
         <v>2</v>
       </c>
-      <c r="B10" s="8" t="str">
+      <c r="B10" s="14" t="str">
         <f ca="1">INDEX(Список!$B$3:$B$39,RANDBETWEEN(1,37))</f>
-        <v>Является ли алгоритм генерации ПСЧ «Вихрь Мерсенна» криптостойким?</v>
-      </c>
-      <c r="C10" s="8"/>
+        <v>Что такое линейный конгруэнтный ГПСЧ?</v>
+      </c>
+      <c r="C10" s="15"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="9">
+      <c r="A11" s="12">
         <v>3</v>
       </c>
-      <c r="B11" s="8" t="str">
+      <c r="B11" s="14" t="str">
+        <f ca="1">INDEX(Список!$B$3:$B$39,RANDBETWEEN(1,37))</f>
+        <v>Чем отличается генератор случайных бит от генератора случайных чисел?</v>
+      </c>
+      <c r="C11" s="15"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="12">
+        <v>4</v>
+      </c>
+      <c r="B12" s="14" t="str">
+        <f ca="1">INDEX(Список!$B$3:$B$39,RANDBETWEEN(1,37))</f>
+        <v>Что такое линейный конгруэнтный ГПСЧ?</v>
+      </c>
+      <c r="C12" s="15"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="12">
+        <v>5</v>
+      </c>
+      <c r="B13" s="14" t="str">
+        <f ca="1">INDEX(Список!$B$3:$B$39,RANDBETWEEN(1,37))</f>
+        <v>Что такое линейная сложность бесконечной последовательности битов?</v>
+      </c>
+      <c r="C13" s="15"/>
+    </row>
+    <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="12">
+        <v>6</v>
+      </c>
+      <c r="B14" s="14" t="str">
+        <f ca="1">INDEX(Список!$B$3:$B$39,RANDBETWEEN(1,37))</f>
+        <v>Какова максимальная длина последовательности ПСЧ для аддитивного генератора?</v>
+      </c>
+      <c r="C14" s="15"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="12">
+        <v>7</v>
+      </c>
+      <c r="B15" s="14" t="str">
+        <f ca="1">INDEX(Список!$B$3:$B$39,RANDBETWEEN(1,37))</f>
+        <v>Что такое пороговый ГПСЧ?</v>
+      </c>
+      <c r="C15" s="15"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="12">
+        <v>8</v>
+      </c>
+      <c r="B16" s="14" t="str">
+        <f ca="1">INDEX(Список!$B$3:$B$39,RANDBETWEEN(1,37))</f>
+        <v>В чем главные недостатки метода срединных квадратов?</v>
+      </c>
+      <c r="C16" s="15"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="12">
+        <v>9</v>
+      </c>
+      <c r="B17" s="14" t="str">
+        <f ca="1">INDEX(Список!$B$3:$B$39,RANDBETWEEN(1,37))</f>
+        <v>Что такое «отводы» в РСОЛС?</v>
+      </c>
+      <c r="C17" s="15"/>
+    </row>
+    <row r="18" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="12">
+        <v>10</v>
+      </c>
+      <c r="B18" s="14" t="str">
+        <f ca="1">INDEX(Список!$B$3:$B$39,RANDBETWEEN(1,37))</f>
+        <v>Какой максимальный период РСЛОС с примитивным характеристическим многочленом x^5+x^2+1?</v>
+      </c>
+      <c r="C18" s="15"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="12">
+        <v>11</v>
+      </c>
+      <c r="B19" s="14" t="str">
+        <f ca="1">INDEX(Список!$B$3:$B$39,RANDBETWEEN(1,37))</f>
+        <v>Что такое линейная сложность бесконечной последовательности битов?</v>
+      </c>
+      <c r="C19" s="15"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="12">
+        <v>12</v>
+      </c>
+      <c r="B20" s="14" t="str">
+        <f ca="1">INDEX(Список!$B$3:$B$39,RANDBETWEEN(1,37))</f>
+        <v>Что такое примитивный многочлен?</v>
+      </c>
+      <c r="C20" s="15"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="12">
+        <v>13</v>
+      </c>
+      <c r="B21" s="14" t="str">
+        <f ca="1">INDEX(Список!$B$3:$B$39,RANDBETWEEN(1,37))</f>
+        <v>Чем отличается генератор случайных бит от генератора случайных чисел?</v>
+      </c>
+      <c r="C21" s="15"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="12">
+        <v>14</v>
+      </c>
+      <c r="B22" s="14" t="str">
+        <f ca="1">INDEX(Список!$B$3:$B$39,RANDBETWEEN(1,37))</f>
+        <v>Чем регистр сдвига с обратной связью по переносу отличается от РСЛОС?</v>
+      </c>
+      <c r="C22" s="15"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="12">
+        <v>15</v>
+      </c>
+      <c r="B23" s="14" t="str">
+        <f ca="1">INDEX(Список!$B$3:$B$39,RANDBETWEEN(1,37))</f>
+        <v>Что называют М-последовательностью?</v>
+      </c>
+      <c r="C23" s="15"/>
+    </row>
+    <row r="24" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="13">
+        <v>16</v>
+      </c>
+      <c r="B24" s="16" t="str">
         <f ca="1">INDEX(Список!$B$3:$B$39,RANDBETWEEN(1,37))</f>
         <v>Какова максимальная длина линейного конгруэнтного генератора ПСЧ с величиной модуля m?</v>
       </c>
-      <c r="C11" s="8"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="9">
-        <v>4</v>
-      </c>
-      <c r="B12" s="8" t="str">
-        <f ca="1">INDEX(Список!$B$3:$B$39,RANDBETWEEN(1,37))</f>
-        <v>Что такое случайное число?</v>
-      </c>
-      <c r="C12" s="8"/>
-    </row>
-    <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="9">
-        <v>5</v>
-      </c>
-      <c r="B13" s="8" t="str">
-        <f ca="1">INDEX(Список!$B$3:$B$39,RANDBETWEEN(1,37))</f>
-        <v>Что такое «отводы» в РСОЛС?</v>
-      </c>
-      <c r="C13" s="8"/>
-    </row>
-    <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="9">
-        <v>6</v>
-      </c>
-      <c r="B14" s="8" t="str">
-        <f ca="1">INDEX(Список!$B$3:$B$39,RANDBETWEEN(1,37))</f>
-        <v>Что такое пороговый ГПСЧ?</v>
-      </c>
-      <c r="C14" s="8"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="9">
-        <v>7</v>
-      </c>
-      <c r="B15" s="8" t="str">
-        <f ca="1">INDEX(Список!$B$3:$B$39,RANDBETWEEN(1,37))</f>
-        <v>Какова максимальная длина последовательности ПСЧ для аддитивного генератора?</v>
-      </c>
-      <c r="C15" s="8"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="9">
-        <v>8</v>
-      </c>
-      <c r="B16" s="8" t="str">
-        <f ca="1">INDEX(Список!$B$3:$B$39,RANDBETWEEN(1,37))</f>
-        <v>Какой максимальный период РСЛОС с примитивным характеристическим многочленом x^5+x^2+1?</v>
-      </c>
-      <c r="C16" s="8"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="9">
-        <v>9</v>
-      </c>
-      <c r="B17" s="8" t="str">
-        <f ca="1">INDEX(Список!$B$3:$B$39,RANDBETWEEN(1,37))</f>
-        <v>Что такое аддитивный ГПСЧ?</v>
-      </c>
-      <c r="C17" s="8"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="9">
-        <v>10</v>
-      </c>
-      <c r="B18" s="8" t="str">
-        <f ca="1">INDEX(Список!$B$3:$B$39,RANDBETWEEN(1,37))</f>
-        <v>В чем главные недостатки метода срединных квадратов?</v>
-      </c>
-      <c r="C18" s="8"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="9">
-        <v>11</v>
-      </c>
-      <c r="B19" s="8" t="str">
-        <f ca="1">INDEX(Список!$B$3:$B$39,RANDBETWEEN(1,37))</f>
-        <v>Какова максимальная длина последовательности ПСЧ для аддитивного генератора?</v>
-      </c>
-      <c r="C19" s="8"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="9">
-        <v>12</v>
-      </c>
-      <c r="B20" s="8" t="str">
-        <f ca="1">INDEX(Список!$B$3:$B$39,RANDBETWEEN(1,37))</f>
-        <v>Что означает буква M в названии метода M-последовательности?</v>
-      </c>
-      <c r="C20" s="8"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="9">
-        <v>13</v>
-      </c>
-      <c r="B21" s="8" t="str">
-        <f ca="1">INDEX(Список!$B$3:$B$39,RANDBETWEEN(1,37))</f>
-        <v>Какие классы генераторов случайных числе Вы знаете?</v>
-      </c>
-      <c r="C21" s="8"/>
-    </row>
-    <row r="22" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="9">
-        <v>14</v>
-      </c>
-      <c r="B22" s="8" t="str">
-        <f ca="1">INDEX(Список!$B$3:$B$39,RANDBETWEEN(1,37))</f>
-        <v>Что такое примитивный многочлен?</v>
-      </c>
-      <c r="C22" s="8"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="9">
-        <v>15</v>
-      </c>
-      <c r="B23" s="8" t="str">
-        <f ca="1">INDEX(Список!$B$3:$B$39,RANDBETWEEN(1,37))</f>
-        <v>Какой ГПСЧ называется криптостойким?</v>
-      </c>
-      <c r="C23" s="8"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="9">
-        <v>16</v>
-      </c>
-      <c r="B24" s="8" t="str">
-        <f ca="1">INDEX(Список!$B$3:$B$39,RANDBETWEEN(1,37))</f>
-        <v>Что такое прореживаемый ГПСЧ?</v>
-      </c>
-      <c r="C24" s="8"/>
+      <c r="C24" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -882,8 +1101,8 @@
   <sheetPr codeName="Лист2"/>
   <dimension ref="A3:B67"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -937,7 +1156,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>5</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="18" x14ac:dyDescent="0.3">
@@ -945,7 +1164,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="18" x14ac:dyDescent="0.3">
@@ -953,7 +1172,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="18" x14ac:dyDescent="0.3">
@@ -961,7 +1180,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="18" x14ac:dyDescent="0.3">
@@ -969,7 +1188,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="18" x14ac:dyDescent="0.3">
@@ -977,7 +1196,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="18" x14ac:dyDescent="0.3">
@@ -985,7 +1204,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="18" x14ac:dyDescent="0.3">
@@ -993,7 +1212,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="18" x14ac:dyDescent="0.3">
@@ -1001,7 +1220,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="18" x14ac:dyDescent="0.3">
@@ -1009,7 +1228,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="18" x14ac:dyDescent="0.3">
@@ -1017,7 +1236,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="18" x14ac:dyDescent="0.3">
@@ -1025,7 +1244,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="18" x14ac:dyDescent="0.3">
@@ -1033,7 +1252,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="18" x14ac:dyDescent="0.3">
@@ -1041,7 +1260,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="18" x14ac:dyDescent="0.3">
@@ -1049,7 +1268,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="18" x14ac:dyDescent="0.3">
@@ -1057,7 +1276,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="18" x14ac:dyDescent="0.3">
@@ -1065,7 +1284,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="18" x14ac:dyDescent="0.3">
@@ -1073,7 +1292,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="18" x14ac:dyDescent="0.3">
@@ -1081,7 +1300,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="18" x14ac:dyDescent="0.3">
@@ -1089,7 +1308,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="36" x14ac:dyDescent="0.3">
@@ -1097,7 +1316,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="18" x14ac:dyDescent="0.3">
@@ -1105,7 +1324,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="18" x14ac:dyDescent="0.3">
@@ -1113,7 +1332,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="18" x14ac:dyDescent="0.3">
@@ -1121,7 +1340,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="18" x14ac:dyDescent="0.3">
@@ -1129,7 +1348,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="18" x14ac:dyDescent="0.3">
@@ -1137,7 +1356,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="18" x14ac:dyDescent="0.3">
@@ -1145,7 +1364,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="18" x14ac:dyDescent="0.3">
@@ -1153,7 +1372,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="18" x14ac:dyDescent="0.3">
@@ -1161,7 +1380,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="18" x14ac:dyDescent="0.3">
@@ -1169,7 +1388,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="18" x14ac:dyDescent="0.3">
@@ -1177,7 +1396,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="18" x14ac:dyDescent="0.3">
@@ -1185,7 +1404,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="18" x14ac:dyDescent="0.3">
@@ -1193,7 +1412,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="18" x14ac:dyDescent="0.3">
@@ -1201,7 +1420,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="18" x14ac:dyDescent="0.3">
@@ -1209,7 +1428,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="18" x14ac:dyDescent="0.3">
@@ -1217,7 +1436,7 @@
         <v>43</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="18" x14ac:dyDescent="0.3">
@@ -1225,7 +1444,7 @@
         <v>44</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="18" x14ac:dyDescent="0.3">
@@ -1233,7 +1452,7 @@
         <v>45</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="18" x14ac:dyDescent="0.3">
@@ -1241,7 +1460,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="18" x14ac:dyDescent="0.3">
@@ -1249,7 +1468,7 @@
         <v>47</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="18" x14ac:dyDescent="0.3">
@@ -1257,7 +1476,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="18" x14ac:dyDescent="0.3">
@@ -1265,7 +1484,7 @@
         <v>49</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="18" x14ac:dyDescent="0.3">
@@ -1273,7 +1492,7 @@
         <v>50</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="18" x14ac:dyDescent="0.3">
@@ -1281,7 +1500,7 @@
         <v>51</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="18" x14ac:dyDescent="0.3">
@@ -1289,7 +1508,7 @@
         <v>52</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="18" x14ac:dyDescent="0.3">
@@ -1297,7 +1516,7 @@
         <v>53</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="18" x14ac:dyDescent="0.3">
@@ -1305,7 +1524,7 @@
         <v>54</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="18" x14ac:dyDescent="0.3">
@@ -1313,7 +1532,7 @@
         <v>55</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="18" x14ac:dyDescent="0.3">
@@ -1321,7 +1540,7 @@
         <v>56</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="18" x14ac:dyDescent="0.3">
@@ -1329,7 +1548,7 @@
         <v>57</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="18" x14ac:dyDescent="0.3">
@@ -1337,7 +1556,7 @@
         <v>58</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="18" x14ac:dyDescent="0.3">
@@ -1345,7 +1564,7 @@
         <v>59</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="18" x14ac:dyDescent="0.3">
@@ -1353,7 +1572,7 @@
         <v>60</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="18" x14ac:dyDescent="0.3">
@@ -1361,7 +1580,7 @@
         <v>61</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="18" x14ac:dyDescent="0.3">
@@ -1369,7 +1588,7 @@
         <v>62</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="18" x14ac:dyDescent="0.3">
@@ -1377,7 +1596,7 @@
         <v>63</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="18" x14ac:dyDescent="0.3">
@@ -1385,7 +1604,7 @@
         <v>64</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="18" x14ac:dyDescent="0.3">
@@ -1393,7 +1612,7 @@
         <v>65</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="18" x14ac:dyDescent="0.3">
@@ -1401,7 +1620,7 @@
         <v>66</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="36" x14ac:dyDescent="0.3">
@@ -1409,7 +1628,7 @@
         <v>67</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/tests/КонтрольнаяТПСГ.xlsx
+++ b/tests/КонтрольнаяТПСГ.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="288" yWindow="180" windowWidth="22980" windowHeight="9204"/>
+    <workbookView xWindow="288" yWindow="120" windowWidth="22980" windowHeight="9264"/>
   </bookViews>
   <sheets>
     <sheet name="Вопросы" sheetId="2" r:id="rId1"/>
     <sheet name="Список" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" calcMode="manual" calcCompleted="0" calcOnSave="0"/>
 </workbook>
 </file>
 
@@ -32,6 +32,9 @@
     <t>Что такое тест на следующий бит?</t>
   </si>
   <si>
+    <t>Какие классы генераторов случайных числе Вы знаете?</t>
+  </si>
+  <si>
     <t>Назовите основные компоненты функциональной модели ГПСЧ?</t>
   </si>
   <si>
@@ -230,23 +233,20 @@
     <t>4. Сохранить файл под именем "КонтрольнаяТПСГ_ФамилияИО.xlsx" и отправить на почту gurgutan@yandex.ru</t>
   </si>
   <si>
-    <t>Какие классы генераторов случайных чисел Вы знаете?</t>
+    <t>№</t>
   </si>
   <si>
     <t>Вопрос</t>
   </si>
   <si>
     <t>Ответ</t>
-  </si>
-  <si>
-    <t>№</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -280,15 +280,6 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -304,7 +295,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -328,6 +319,84 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -345,9 +414,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -364,118 +431,60 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="6">
     <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -486,11 +495,13 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -503,11 +514,13 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="thin">
           <color indexed="64"/>
@@ -518,10 +531,9 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -539,16 +551,13 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="medium">
+        <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="medium">
+        <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
+        <bottom style="thin">
           <color indexed="64"/>
         </bottom>
       </border>
@@ -564,7 +573,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A8:C24" totalsRowShown="0" dataDxfId="3" headerRowBorderDxfId="5" tableBorderDxfId="6" totalsRowBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A8:C24" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="5" totalsRowBorderDxfId="3">
   <tableColumns count="3">
     <tableColumn id="1" name="№" dataDxfId="2"/>
     <tableColumn id="2" name="Вопрос" dataDxfId="1">
@@ -572,7 +581,7 @@
     </tableColumn>
     <tableColumn id="3" name="Ответ" dataDxfId="0"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -867,7 +876,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -878,214 +887,214 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B2" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B3" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B4" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B2" s="6" t="s">
+    <row r="5" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="9" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B4" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B5" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="3"/>
     </row>
     <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>73</v>
-      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="12">
+      <c r="A9" s="11">
         <v>1</v>
       </c>
-      <c r="B9" s="14" t="str">
-        <f ca="1">INDEX(Список!$B$3:$B$39,RANDBETWEEN(1,37))</f>
-        <v>Чем отличается генератор случайных бит от генератора случайных чисел?</v>
-      </c>
-      <c r="C9" s="15"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="12">
-        <v>2</v>
-      </c>
-      <c r="B10" s="14" t="str">
-        <f ca="1">INDEX(Список!$B$3:$B$39,RANDBETWEEN(1,37))</f>
-        <v>Что такое линейный конгруэнтный ГПСЧ?</v>
-      </c>
-      <c r="C10" s="15"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="12">
-        <v>3</v>
-      </c>
-      <c r="B11" s="14" t="str">
-        <f ca="1">INDEX(Список!$B$3:$B$39,RANDBETWEEN(1,37))</f>
-        <v>Чем отличается генератор случайных бит от генератора случайных чисел?</v>
-      </c>
-      <c r="C11" s="15"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="12">
-        <v>4</v>
-      </c>
-      <c r="B12" s="14" t="str">
-        <f ca="1">INDEX(Список!$B$3:$B$39,RANDBETWEEN(1,37))</f>
-        <v>Что такое линейный конгруэнтный ГПСЧ?</v>
-      </c>
-      <c r="C12" s="15"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="12">
-        <v>5</v>
-      </c>
-      <c r="B13" s="14" t="str">
+      <c r="B9" s="6" t="str">
         <f ca="1">INDEX(Список!$B$3:$B$39,RANDBETWEEN(1,37))</f>
         <v>Что такое линейная сложность бесконечной последовательности битов?</v>
       </c>
-      <c r="C13" s="15"/>
-    </row>
-    <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="12">
+      <c r="C9" s="13"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="11">
+        <v>2</v>
+      </c>
+      <c r="B10" s="6" t="str">
+        <f ca="1">INDEX(Список!$B$3:$B$39,RANDBETWEEN(1,37))</f>
+        <v>Что такое метод Таусворта генерации ПСЧ?</v>
+      </c>
+      <c r="C10" s="13"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="11">
+        <v>3</v>
+      </c>
+      <c r="B11" s="6" t="str">
+        <f ca="1">INDEX(Список!$B$3:$B$39,RANDBETWEEN(1,37))</f>
+        <v>Чем регистр сдвига с обратной связью по переносу отличается от РСЛОС?</v>
+      </c>
+      <c r="C11" s="13"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="11">
+        <v>4</v>
+      </c>
+      <c r="B12" s="6" t="str">
+        <f ca="1">INDEX(Список!$B$3:$B$39,RANDBETWEEN(1,37))</f>
+        <v>Какие проблемы приходится решать при реализации физического ГПСЧ?</v>
+      </c>
+      <c r="C12" s="13"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="11">
+        <v>5</v>
+      </c>
+      <c r="B13" s="6" t="str">
+        <f ca="1">INDEX(Список!$B$3:$B$39,RANDBETWEEN(1,37))</f>
+        <v>Что такое нелинейный порядок двоичной функции?</v>
+      </c>
+      <c r="C13" s="13"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="11">
         <v>6</v>
       </c>
-      <c r="B14" s="14" t="str">
+      <c r="B14" s="6" t="str">
         <f ca="1">INDEX(Список!$B$3:$B$39,RANDBETWEEN(1,37))</f>
-        <v>Какова максимальная длина последовательности ПСЧ для аддитивного генератора?</v>
-      </c>
-      <c r="C14" s="15"/>
+        <v>Что такое примитивный многочлен?</v>
+      </c>
+      <c r="C14" s="13"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="12">
+      <c r="A15" s="11">
         <v>7</v>
       </c>
-      <c r="B15" s="14" t="str">
+      <c r="B15" s="6" t="str">
         <f ca="1">INDEX(Список!$B$3:$B$39,RANDBETWEEN(1,37))</f>
-        <v>Что такое пороговый ГПСЧ?</v>
-      </c>
-      <c r="C15" s="15"/>
+        <v>Какие проблемы приходится решать при реализации физического ГПСЧ?</v>
+      </c>
+      <c r="C15" s="13"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="12">
+      <c r="A16" s="11">
         <v>8</v>
       </c>
-      <c r="B16" s="14" t="str">
+      <c r="B16" s="6" t="str">
         <f ca="1">INDEX(Список!$B$3:$B$39,RANDBETWEEN(1,37))</f>
-        <v>В чем главные недостатки метода срединных квадратов?</v>
-      </c>
-      <c r="C16" s="15"/>
+        <v>Что такое пятипараметрический метод генерации ПСЧ?</v>
+      </c>
+      <c r="C16" s="13"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="12">
+      <c r="A17" s="11">
         <v>9</v>
       </c>
-      <c r="B17" s="14" t="str">
+      <c r="B17" s="6" t="str">
         <f ca="1">INDEX(Список!$B$3:$B$39,RANDBETWEEN(1,37))</f>
-        <v>Что такое «отводы» в РСОЛС?</v>
-      </c>
-      <c r="C17" s="15"/>
-    </row>
-    <row r="18" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="12">
+        <v>Что такое тест на следующий бит?</v>
+      </c>
+      <c r="C17" s="13"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="11">
         <v>10</v>
       </c>
-      <c r="B18" s="14" t="str">
+      <c r="B18" s="6" t="str">
         <f ca="1">INDEX(Список!$B$3:$B$39,RANDBETWEEN(1,37))</f>
-        <v>Какой максимальный период РСЛОС с примитивным характеристическим многочленом x^5+x^2+1?</v>
-      </c>
-      <c r="C18" s="15"/>
+        <v>Что такое метод Таусворта генерации ПСЧ?</v>
+      </c>
+      <c r="C18" s="13"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="12">
+      <c r="A19" s="11">
         <v>11</v>
       </c>
-      <c r="B19" s="14" t="str">
+      <c r="B19" s="6" t="str">
+        <f ca="1">INDEX(Список!$B$3:$B$39,RANDBETWEEN(1,37))</f>
+        <v>Что такое Регистр сдвига с обратной линейной связью?</v>
+      </c>
+      <c r="C19" s="13"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="11">
+        <v>12</v>
+      </c>
+      <c r="B20" s="6" t="str">
         <f ca="1">INDEX(Список!$B$3:$B$39,RANDBETWEEN(1,37))</f>
         <v>Что такое линейная сложность бесконечной последовательности битов?</v>
       </c>
-      <c r="C19" s="15"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="12">
-        <v>12</v>
-      </c>
-      <c r="B20" s="14" t="str">
+      <c r="C20" s="13"/>
+    </row>
+    <row r="21" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="11">
+        <v>13</v>
+      </c>
+      <c r="B21" s="6" t="str">
         <f ca="1">INDEX(Список!$B$3:$B$39,RANDBETWEEN(1,37))</f>
-        <v>Что такое примитивный многочлен?</v>
-      </c>
-      <c r="C20" s="15"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="12">
-        <v>13</v>
-      </c>
-      <c r="B21" s="14" t="str">
+        <v>Что такое характеристический полином регистра сдвига с обратной линейной связью?</v>
+      </c>
+      <c r="C21" s="13"/>
+    </row>
+    <row r="22" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="11">
+        <v>14</v>
+      </c>
+      <c r="B22" s="6" t="str">
         <f ca="1">INDEX(Список!$B$3:$B$39,RANDBETWEEN(1,37))</f>
-        <v>Чем отличается генератор случайных бит от генератора случайных чисел?</v>
-      </c>
-      <c r="C21" s="15"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="12">
-        <v>14</v>
-      </c>
-      <c r="B22" s="14" t="str">
+        <v>Что такое характеристический полином регистра сдвига с обратной линейной связью?</v>
+      </c>
+      <c r="C22" s="13"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="11">
+        <v>15</v>
+      </c>
+      <c r="B23" s="6" t="str">
         <f ca="1">INDEX(Список!$B$3:$B$39,RANDBETWEEN(1,37))</f>
-        <v>Чем регистр сдвига с обратной связью по переносу отличается от РСЛОС?</v>
-      </c>
-      <c r="C22" s="15"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="12">
-        <v>15</v>
-      </c>
-      <c r="B23" s="14" t="str">
+        <v>Что такое линейная сложность бесконечной последовательности битов?</v>
+      </c>
+      <c r="C23" s="13"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="14">
+        <v>16</v>
+      </c>
+      <c r="B24" s="15" t="str">
         <f ca="1">INDEX(Список!$B$3:$B$39,RANDBETWEEN(1,37))</f>
-        <v>Что называют М-последовательностью?</v>
-      </c>
-      <c r="C23" s="15"/>
-    </row>
-    <row r="24" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="13">
-        <v>16</v>
-      </c>
-      <c r="B24" s="16" t="str">
-        <f ca="1">INDEX(Список!$B$3:$B$39,RANDBETWEEN(1,37))</f>
-        <v>Какова максимальная длина линейного конгруэнтного генератора ПСЧ с величиной модуля m?</v>
-      </c>
-      <c r="C24" s="17"/>
+        <v>Как работает ГПСЧ на базе клеточного автомата?</v>
+      </c>
+      <c r="C24" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1101,8 +1110,8 @@
   <sheetPr codeName="Лист2"/>
   <dimension ref="A3:B67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1156,7 +1165,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>71</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="18" x14ac:dyDescent="0.3">
@@ -1164,7 +1173,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="18" x14ac:dyDescent="0.3">
@@ -1172,7 +1181,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="18" x14ac:dyDescent="0.3">
@@ -1180,7 +1189,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="18" x14ac:dyDescent="0.3">
@@ -1188,7 +1197,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="18" x14ac:dyDescent="0.3">
@@ -1196,7 +1205,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="18" x14ac:dyDescent="0.3">
@@ -1204,7 +1213,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="18" x14ac:dyDescent="0.3">
@@ -1212,7 +1221,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="18" x14ac:dyDescent="0.3">
@@ -1220,7 +1229,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="18" x14ac:dyDescent="0.3">
@@ -1228,7 +1237,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="18" x14ac:dyDescent="0.3">
@@ -1236,7 +1245,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="18" x14ac:dyDescent="0.3">
@@ -1244,7 +1253,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="18" x14ac:dyDescent="0.3">
@@ -1252,7 +1261,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="18" x14ac:dyDescent="0.3">
@@ -1260,7 +1269,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="18" x14ac:dyDescent="0.3">
@@ -1268,7 +1277,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="18" x14ac:dyDescent="0.3">
@@ -1276,7 +1285,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="18" x14ac:dyDescent="0.3">
@@ -1284,7 +1293,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="18" x14ac:dyDescent="0.3">
@@ -1292,7 +1301,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="18" x14ac:dyDescent="0.3">
@@ -1300,7 +1309,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="18" x14ac:dyDescent="0.3">
@@ -1308,7 +1317,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="36" x14ac:dyDescent="0.3">
@@ -1316,7 +1325,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="18" x14ac:dyDescent="0.3">
@@ -1324,7 +1333,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="18" x14ac:dyDescent="0.3">
@@ -1332,7 +1341,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="18" x14ac:dyDescent="0.3">
@@ -1340,7 +1349,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="18" x14ac:dyDescent="0.3">
@@ -1348,7 +1357,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="18" x14ac:dyDescent="0.3">
@@ -1356,7 +1365,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="18" x14ac:dyDescent="0.3">
@@ -1364,7 +1373,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="18" x14ac:dyDescent="0.3">
@@ -1372,7 +1381,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="18" x14ac:dyDescent="0.3">
@@ -1380,7 +1389,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="18" x14ac:dyDescent="0.3">
@@ -1388,7 +1397,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="18" x14ac:dyDescent="0.3">
@@ -1396,7 +1405,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="18" x14ac:dyDescent="0.3">
@@ -1404,7 +1413,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="18" x14ac:dyDescent="0.3">
@@ -1412,7 +1421,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="18" x14ac:dyDescent="0.3">
@@ -1420,7 +1429,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="18" x14ac:dyDescent="0.3">
@@ -1428,7 +1437,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="18" x14ac:dyDescent="0.3">
@@ -1436,7 +1445,7 @@
         <v>43</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="18" x14ac:dyDescent="0.3">
@@ -1444,7 +1453,7 @@
         <v>44</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="18" x14ac:dyDescent="0.3">
@@ -1452,7 +1461,7 @@
         <v>45</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="18" x14ac:dyDescent="0.3">
@@ -1460,7 +1469,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="18" x14ac:dyDescent="0.3">
@@ -1468,7 +1477,7 @@
         <v>47</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="18" x14ac:dyDescent="0.3">
@@ -1476,7 +1485,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="18" x14ac:dyDescent="0.3">
@@ -1484,7 +1493,7 @@
         <v>49</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="18" x14ac:dyDescent="0.3">
@@ -1492,7 +1501,7 @@
         <v>50</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="18" x14ac:dyDescent="0.3">
@@ -1500,7 +1509,7 @@
         <v>51</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="18" x14ac:dyDescent="0.3">
@@ -1508,7 +1517,7 @@
         <v>52</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="18" x14ac:dyDescent="0.3">
@@ -1516,7 +1525,7 @@
         <v>53</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="18" x14ac:dyDescent="0.3">
@@ -1524,7 +1533,7 @@
         <v>54</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="18" x14ac:dyDescent="0.3">
@@ -1532,7 +1541,7 @@
         <v>55</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="18" x14ac:dyDescent="0.3">
@@ -1540,7 +1549,7 @@
         <v>56</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="18" x14ac:dyDescent="0.3">
@@ -1548,7 +1557,7 @@
         <v>57</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="18" x14ac:dyDescent="0.3">
@@ -1556,7 +1565,7 @@
         <v>58</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="18" x14ac:dyDescent="0.3">
@@ -1564,7 +1573,7 @@
         <v>59</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="18" x14ac:dyDescent="0.3">
@@ -1572,7 +1581,7 @@
         <v>60</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="18" x14ac:dyDescent="0.3">
@@ -1580,7 +1589,7 @@
         <v>61</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="18" x14ac:dyDescent="0.3">
@@ -1588,7 +1597,7 @@
         <v>62</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="18" x14ac:dyDescent="0.3">
@@ -1596,7 +1605,7 @@
         <v>63</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="18" x14ac:dyDescent="0.3">
@@ -1604,7 +1613,7 @@
         <v>64</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="18" x14ac:dyDescent="0.3">
@@ -1612,7 +1621,7 @@
         <v>65</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="18" x14ac:dyDescent="0.3">
@@ -1620,7 +1629,7 @@
         <v>66</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="36" x14ac:dyDescent="0.3">
@@ -1628,7 +1637,7 @@
         <v>67</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
